--- a/дз6 .xlsx
+++ b/дз6 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polina/Desktop/учеба/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polina/Documents/GitHub/myfirst_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC78117F-9DDE-1840-A095-CCA468651B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5711E05C-55EA-5E4B-9FE5-E21EAC9FD895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1600" windowWidth="21400" windowHeight="13560" tabRatio="682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="3260" windowWidth="21400" windowHeight="13560" tabRatio="682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>passed</t>
   </si>
@@ -588,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +751,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -885,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -978,9 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -999,9 +1005,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1012,6 +1015,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1027,21 +1045,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1438,11 +1442,11 @@
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="11" ySplit="7" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1486,7 +1490,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$55,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1531,7 +1535,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$55,"passed")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1574,7 +1578,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>43943</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -1658,43 +1664,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="55" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="57"/>
+      <c r="P6" s="48"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="57"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="57"/>
+      <c r="T6" s="48"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1704,29 +1710,29 @@
     </row>
     <row r="7" spans="1:124" ht="127" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="59"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="57"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="57"/>
+      <c r="P7" s="48"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="57"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="57"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1739,7 +1745,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1756,7 +1762,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1792,7 +1800,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1828,7 +1838,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1853,7 +1865,7 @@
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="47" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1864,119 +1876,121 @@
       <c r="I11" s="32"/>
       <c r="J11" s="31"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="35"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="35"/>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="35"/>
-      <c r="BI11" s="36"/>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="36"/>
-      <c r="BL11" s="35"/>
-      <c r="BM11" s="36"/>
-      <c r="BN11" s="35"/>
-      <c r="BO11" s="36"/>
-      <c r="BP11" s="35"/>
-      <c r="BQ11" s="36"/>
-      <c r="BR11" s="35"/>
-      <c r="BS11" s="36"/>
-      <c r="BT11" s="35"/>
-      <c r="BU11" s="36"/>
-      <c r="BV11" s="35"/>
-      <c r="BW11" s="36"/>
-      <c r="BX11" s="35"/>
-      <c r="BY11" s="36"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="36"/>
-      <c r="CB11" s="35"/>
-      <c r="CC11" s="36"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="36"/>
-      <c r="CF11" s="35"/>
-      <c r="CG11" s="36"/>
-      <c r="CH11" s="37"/>
-      <c r="CI11" s="36"/>
-      <c r="CJ11" s="35"/>
-      <c r="CK11" s="36"/>
-      <c r="CL11" s="35"/>
-      <c r="CM11" s="36"/>
-      <c r="CN11" s="35"/>
-      <c r="CO11" s="36"/>
-      <c r="CP11" s="35"/>
-      <c r="CQ11" s="36"/>
-      <c r="CR11" s="35"/>
-      <c r="CS11" s="36"/>
-      <c r="CT11" s="35"/>
-      <c r="CU11" s="36"/>
-      <c r="CV11" s="35"/>
-      <c r="CW11" s="36"/>
-      <c r="CX11" s="35"/>
-      <c r="CY11" s="34"/>
-      <c r="CZ11" s="35"/>
-      <c r="DA11" s="34"/>
-      <c r="DB11" s="35"/>
-      <c r="DC11" s="34"/>
-      <c r="DD11" s="35"/>
-      <c r="DE11" s="34"/>
-      <c r="DF11" s="35"/>
-      <c r="DG11" s="34"/>
-      <c r="DH11" s="35"/>
-      <c r="DI11" s="34"/>
-      <c r="DJ11" s="35"/>
-      <c r="DK11" s="35"/>
-      <c r="DL11" s="35"/>
-      <c r="DM11" s="35"/>
-      <c r="DN11" s="39"/>
-      <c r="DO11" s="35"/>
-      <c r="DP11" s="40"/>
-      <c r="DQ11" s="40"/>
-      <c r="DR11" s="40"/>
-      <c r="DS11" s="40"/>
-      <c r="DT11" s="40"/>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="35"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="35"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="35"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="35"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="35"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="35"/>
+      <c r="BT11" s="34"/>
+      <c r="BU11" s="35"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="35"/>
+      <c r="BX11" s="34"/>
+      <c r="BY11" s="35"/>
+      <c r="BZ11" s="36"/>
+      <c r="CA11" s="35"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="35"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="35"/>
+      <c r="CH11" s="36"/>
+      <c r="CI11" s="35"/>
+      <c r="CJ11" s="34"/>
+      <c r="CK11" s="35"/>
+      <c r="CL11" s="34"/>
+      <c r="CM11" s="35"/>
+      <c r="CN11" s="34"/>
+      <c r="CO11" s="35"/>
+      <c r="CP11" s="34"/>
+      <c r="CQ11" s="35"/>
+      <c r="CR11" s="34"/>
+      <c r="CS11" s="35"/>
+      <c r="CT11" s="34"/>
+      <c r="CU11" s="35"/>
+      <c r="CV11" s="34"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="34"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="33"/>
+      <c r="DB11" s="34"/>
+      <c r="DC11" s="33"/>
+      <c r="DD11" s="34"/>
+      <c r="DE11" s="33"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="33"/>
+      <c r="DH11" s="34"/>
+      <c r="DI11" s="33"/>
+      <c r="DJ11" s="34"/>
+      <c r="DK11" s="34"/>
+      <c r="DL11" s="34"/>
+      <c r="DM11" s="34"/>
+      <c r="DN11" s="38"/>
+      <c r="DO11" s="34"/>
+      <c r="DP11" s="39"/>
+      <c r="DQ11" s="39"/>
+      <c r="DR11" s="39"/>
+      <c r="DS11" s="39"/>
+      <c r="DT11" s="39"/>
     </row>
     <row r="12" spans="1:124" ht="102" customHeight="1">
       <c r="A12" s="12"/>
@@ -1987,7 +2001,7 @@
       <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="47" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1996,121 +2010,123 @@
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="36"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="36"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="36"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="36"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="36"/>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="36"/>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="36"/>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="36"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="36"/>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="36"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="36"/>
-      <c r="BR12" s="45"/>
-      <c r="BS12" s="36"/>
-      <c r="BT12" s="45"/>
-      <c r="BU12" s="36"/>
-      <c r="BV12" s="45"/>
-      <c r="BW12" s="36"/>
-      <c r="BX12" s="45"/>
-      <c r="BY12" s="36"/>
-      <c r="BZ12" s="45"/>
-      <c r="CA12" s="36"/>
-      <c r="CB12" s="45"/>
-      <c r="CC12" s="36"/>
-      <c r="CD12" s="46"/>
-      <c r="CE12" s="36"/>
-      <c r="CF12" s="45"/>
-      <c r="CG12" s="36"/>
-      <c r="CH12" s="45"/>
-      <c r="CI12" s="36"/>
-      <c r="CJ12" s="45"/>
-      <c r="CK12" s="36"/>
-      <c r="CL12" s="45"/>
-      <c r="CM12" s="36"/>
-      <c r="CN12" s="45"/>
-      <c r="CO12" s="36"/>
-      <c r="CP12" s="45"/>
-      <c r="CQ12" s="36"/>
-      <c r="CR12" s="45"/>
-      <c r="CS12" s="36"/>
-      <c r="CT12" s="45"/>
-      <c r="CU12" s="36"/>
-      <c r="CV12" s="45"/>
-      <c r="CW12" s="36"/>
-      <c r="CX12" s="45"/>
-      <c r="CY12" s="44"/>
-      <c r="CZ12" s="45"/>
-      <c r="DA12" s="44"/>
-      <c r="DB12" s="45"/>
-      <c r="DC12" s="44"/>
-      <c r="DD12" s="45"/>
-      <c r="DE12" s="44"/>
-      <c r="DF12" s="45"/>
-      <c r="DG12" s="44"/>
-      <c r="DH12" s="45"/>
-      <c r="DI12" s="44"/>
-      <c r="DJ12" s="45"/>
-      <c r="DK12" s="45"/>
-      <c r="DL12" s="45"/>
-      <c r="DM12" s="45"/>
-      <c r="DN12" s="47"/>
-      <c r="DO12" s="45"/>
-      <c r="DP12" s="48"/>
-      <c r="DQ12" s="48"/>
-      <c r="DR12" s="48"/>
-      <c r="DS12" s="48"/>
-      <c r="DT12" s="48"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="35"/>
+      <c r="BD12" s="43"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="43"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="43"/>
+      <c r="BI12" s="35"/>
+      <c r="BJ12" s="43"/>
+      <c r="BK12" s="35"/>
+      <c r="BL12" s="43"/>
+      <c r="BM12" s="35"/>
+      <c r="BN12" s="43"/>
+      <c r="BO12" s="35"/>
+      <c r="BP12" s="43"/>
+      <c r="BQ12" s="35"/>
+      <c r="BR12" s="43"/>
+      <c r="BS12" s="35"/>
+      <c r="BT12" s="43"/>
+      <c r="BU12" s="35"/>
+      <c r="BV12" s="43"/>
+      <c r="BW12" s="35"/>
+      <c r="BX12" s="43"/>
+      <c r="BY12" s="35"/>
+      <c r="BZ12" s="43"/>
+      <c r="CA12" s="35"/>
+      <c r="CB12" s="43"/>
+      <c r="CC12" s="35"/>
+      <c r="CD12" s="44"/>
+      <c r="CE12" s="35"/>
+      <c r="CF12" s="43"/>
+      <c r="CG12" s="35"/>
+      <c r="CH12" s="43"/>
+      <c r="CI12" s="35"/>
+      <c r="CJ12" s="43"/>
+      <c r="CK12" s="35"/>
+      <c r="CL12" s="43"/>
+      <c r="CM12" s="35"/>
+      <c r="CN12" s="43"/>
+      <c r="CO12" s="35"/>
+      <c r="CP12" s="43"/>
+      <c r="CQ12" s="35"/>
+      <c r="CR12" s="43"/>
+      <c r="CS12" s="35"/>
+      <c r="CT12" s="43"/>
+      <c r="CU12" s="35"/>
+      <c r="CV12" s="43"/>
+      <c r="CW12" s="35"/>
+      <c r="CX12" s="43"/>
+      <c r="CY12" s="42"/>
+      <c r="CZ12" s="43"/>
+      <c r="DA12" s="42"/>
+      <c r="DB12" s="43"/>
+      <c r="DC12" s="42"/>
+      <c r="DD12" s="43"/>
+      <c r="DE12" s="42"/>
+      <c r="DF12" s="43"/>
+      <c r="DG12" s="42"/>
+      <c r="DH12" s="43"/>
+      <c r="DI12" s="42"/>
+      <c r="DJ12" s="43"/>
+      <c r="DK12" s="43"/>
+      <c r="DL12" s="43"/>
+      <c r="DM12" s="43"/>
+      <c r="DN12" s="45"/>
+      <c r="DO12" s="43"/>
+      <c r="DP12" s="46"/>
+      <c r="DQ12" s="46"/>
+      <c r="DR12" s="46"/>
+      <c r="DS12" s="46"/>
+      <c r="DT12" s="46"/>
     </row>
     <row r="13" spans="1:124" ht="124" customHeight="1">
       <c r="A13" s="12"/>
@@ -2132,7 +2148,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -2168,7 +2186,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -2404,7 +2424,7 @@
       <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2440,7 +2460,7 @@
     <row r="22" spans="1:26" ht="80">
       <c r="A22" s="12"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="41"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="3" t="s">
         <v>80</v>
       </c>
@@ -2800,7 +2820,7 @@
       <c r="B32" s="3">
         <v>24</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -4060,6 +4080,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -4067,12 +4093,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 L13:L55 R13:R55 P13:P55 T13:T55 N13:N55" xr:uid="{00000000-0002-0000-0100-000000000000}">
